--- a/QLDS/Backend/src/main/resources/Bien_ban_kiem_nghiem.xlsx
+++ b/QLDS/Backend/src/main/resources/Bien_ban_kiem_nghiem.xlsx
@@ -3,24 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CFB4C7E1-9986-4D98-B0D4-3615AAF0D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8B47F-7EAD-4CB5-9B27-A85D0FF6B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Biên bản kiểm nghiệm" sheetId="1" r:id="rId1"/>
+    <sheet name="Biên bản kiểm nghiệm" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Biên bản kiểm nghiệm'!$B$1:$J$37</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
-    <t xml:space="preserve">       Mẫu số 03 - VT</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Ban hành theo Thông tư số 200/2014/TT-BTC </t>
   </si>
   <si>
@@ -30,9 +34,6 @@
     <t>Vật tư, công cụ, sản phẩm, hàng hoá</t>
   </si>
   <si>
-    <t>Ban kiểm nghiệm gồm:</t>
-  </si>
-  <si>
     <t>Đã kiểm nghiệm các loại:</t>
   </si>
   <si>
@@ -99,174 +100,41 @@
     <t>Ngày 22/12/2014 của Bộ Tài chính)</t>
   </si>
   <si>
-    <t>Ngày {0} tháng {1} năm {2}</t>
-  </si>
-  <si>
-    <t>Bộ phận: Phòng Kỹ Thuật</t>
-  </si>
-  <si>
     <t>Đơn vị: {0}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> + Ông/Bà:    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     Chức vụ:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     Đại diện:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     Trưởng ban</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> + Ông/Bà:    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     Chức vụ:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     Đại diện:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      Uỷ viên</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  - Căn cứ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hoá đơn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> số {0} ngày {1} tháng {2} năm {3} của {4}</t>
-    </r>
-  </si>
-  <si>
     <t>Ý kiến của Ban kiểm nghiệm: {0}</t>
   </si>
   <si>
-    <t>Số: {0}</t>
+    <t xml:space="preserve"> Mẫu số 03 - VT</t>
+  </si>
+  <si>
+    <t>Bộ phận: Phòng KT-KCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Ban kiểm nghiệm gồm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày {0} tháng {1} năm {2} </t>
+  </si>
+  <si>
+    <t>Số:  {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Căn cứ hoá đơn số {0} ngày {1} tháng {2} năm {3} của {4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Ông/Bà:    {0}     Chức vụ:  {1}     Đại diện:  {2}     Trưởng ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Ông/Bà:    {0}     Chức vụ:  {1}     Đại diện:  {2}      Uỷ viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +144,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -284,43 +153,50 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -364,7 +240,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -374,8 +252,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -384,32 +264,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -421,63 +279,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,298 +702,950 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360DC567-C3BE-4A7F-97BB-EFEBC3F1BD03}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="258" max="258" width="5.42578125" customWidth="1"/>
+    <col min="259" max="259" width="32.42578125" customWidth="1"/>
+    <col min="260" max="260" width="12.140625" customWidth="1"/>
+    <col min="262" max="262" width="6" customWidth="1"/>
+    <col min="263" max="263" width="8.28515625" customWidth="1"/>
+    <col min="264" max="264" width="8.140625" customWidth="1"/>
+    <col min="265" max="265" width="8.7109375" customWidth="1"/>
+    <col min="266" max="266" width="5.7109375" customWidth="1"/>
+    <col min="514" max="514" width="5.42578125" customWidth="1"/>
+    <col min="515" max="515" width="32.42578125" customWidth="1"/>
+    <col min="516" max="516" width="12.140625" customWidth="1"/>
+    <col min="518" max="518" width="6" customWidth="1"/>
+    <col min="519" max="519" width="8.28515625" customWidth="1"/>
+    <col min="520" max="520" width="8.140625" customWidth="1"/>
+    <col min="521" max="521" width="8.7109375" customWidth="1"/>
+    <col min="522" max="522" width="5.7109375" customWidth="1"/>
+    <col min="770" max="770" width="5.42578125" customWidth="1"/>
+    <col min="771" max="771" width="32.42578125" customWidth="1"/>
+    <col min="772" max="772" width="12.140625" customWidth="1"/>
+    <col min="774" max="774" width="6" customWidth="1"/>
+    <col min="775" max="775" width="8.28515625" customWidth="1"/>
+    <col min="776" max="776" width="8.140625" customWidth="1"/>
+    <col min="777" max="777" width="8.7109375" customWidth="1"/>
+    <col min="778" max="778" width="5.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="5.42578125" customWidth="1"/>
+    <col min="1027" max="1027" width="32.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="12.140625" customWidth="1"/>
+    <col min="1030" max="1030" width="6" customWidth="1"/>
+    <col min="1031" max="1031" width="8.28515625" customWidth="1"/>
+    <col min="1032" max="1032" width="8.140625" customWidth="1"/>
+    <col min="1033" max="1033" width="8.7109375" customWidth="1"/>
+    <col min="1034" max="1034" width="5.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="5.42578125" customWidth="1"/>
+    <col min="1283" max="1283" width="32.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="12.140625" customWidth="1"/>
+    <col min="1286" max="1286" width="6" customWidth="1"/>
+    <col min="1287" max="1287" width="8.28515625" customWidth="1"/>
+    <col min="1288" max="1288" width="8.140625" customWidth="1"/>
+    <col min="1289" max="1289" width="8.7109375" customWidth="1"/>
+    <col min="1290" max="1290" width="5.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="5.42578125" customWidth="1"/>
+    <col min="1539" max="1539" width="32.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="12.140625" customWidth="1"/>
+    <col min="1542" max="1542" width="6" customWidth="1"/>
+    <col min="1543" max="1543" width="8.28515625" customWidth="1"/>
+    <col min="1544" max="1544" width="8.140625" customWidth="1"/>
+    <col min="1545" max="1545" width="8.7109375" customWidth="1"/>
+    <col min="1546" max="1546" width="5.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="5.42578125" customWidth="1"/>
+    <col min="1795" max="1795" width="32.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="12.140625" customWidth="1"/>
+    <col min="1798" max="1798" width="6" customWidth="1"/>
+    <col min="1799" max="1799" width="8.28515625" customWidth="1"/>
+    <col min="1800" max="1800" width="8.140625" customWidth="1"/>
+    <col min="1801" max="1801" width="8.7109375" customWidth="1"/>
+    <col min="1802" max="1802" width="5.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="5.42578125" customWidth="1"/>
+    <col min="2051" max="2051" width="32.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="12.140625" customWidth="1"/>
+    <col min="2054" max="2054" width="6" customWidth="1"/>
+    <col min="2055" max="2055" width="8.28515625" customWidth="1"/>
+    <col min="2056" max="2056" width="8.140625" customWidth="1"/>
+    <col min="2057" max="2057" width="8.7109375" customWidth="1"/>
+    <col min="2058" max="2058" width="5.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="5.42578125" customWidth="1"/>
+    <col min="2307" max="2307" width="32.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="12.140625" customWidth="1"/>
+    <col min="2310" max="2310" width="6" customWidth="1"/>
+    <col min="2311" max="2311" width="8.28515625" customWidth="1"/>
+    <col min="2312" max="2312" width="8.140625" customWidth="1"/>
+    <col min="2313" max="2313" width="8.7109375" customWidth="1"/>
+    <col min="2314" max="2314" width="5.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="5.42578125" customWidth="1"/>
+    <col min="2563" max="2563" width="32.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="12.140625" customWidth="1"/>
+    <col min="2566" max="2566" width="6" customWidth="1"/>
+    <col min="2567" max="2567" width="8.28515625" customWidth="1"/>
+    <col min="2568" max="2568" width="8.140625" customWidth="1"/>
+    <col min="2569" max="2569" width="8.7109375" customWidth="1"/>
+    <col min="2570" max="2570" width="5.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="5.42578125" customWidth="1"/>
+    <col min="2819" max="2819" width="32.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="12.140625" customWidth="1"/>
+    <col min="2822" max="2822" width="6" customWidth="1"/>
+    <col min="2823" max="2823" width="8.28515625" customWidth="1"/>
+    <col min="2824" max="2824" width="8.140625" customWidth="1"/>
+    <col min="2825" max="2825" width="8.7109375" customWidth="1"/>
+    <col min="2826" max="2826" width="5.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="5.42578125" customWidth="1"/>
+    <col min="3075" max="3075" width="32.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="12.140625" customWidth="1"/>
+    <col min="3078" max="3078" width="6" customWidth="1"/>
+    <col min="3079" max="3079" width="8.28515625" customWidth="1"/>
+    <col min="3080" max="3080" width="8.140625" customWidth="1"/>
+    <col min="3081" max="3081" width="8.7109375" customWidth="1"/>
+    <col min="3082" max="3082" width="5.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="5.42578125" customWidth="1"/>
+    <col min="3331" max="3331" width="32.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="12.140625" customWidth="1"/>
+    <col min="3334" max="3334" width="6" customWidth="1"/>
+    <col min="3335" max="3335" width="8.28515625" customWidth="1"/>
+    <col min="3336" max="3336" width="8.140625" customWidth="1"/>
+    <col min="3337" max="3337" width="8.7109375" customWidth="1"/>
+    <col min="3338" max="3338" width="5.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="5.42578125" customWidth="1"/>
+    <col min="3587" max="3587" width="32.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="12.140625" customWidth="1"/>
+    <col min="3590" max="3590" width="6" customWidth="1"/>
+    <col min="3591" max="3591" width="8.28515625" customWidth="1"/>
+    <col min="3592" max="3592" width="8.140625" customWidth="1"/>
+    <col min="3593" max="3593" width="8.7109375" customWidth="1"/>
+    <col min="3594" max="3594" width="5.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="5.42578125" customWidth="1"/>
+    <col min="3843" max="3843" width="32.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="12.140625" customWidth="1"/>
+    <col min="3846" max="3846" width="6" customWidth="1"/>
+    <col min="3847" max="3847" width="8.28515625" customWidth="1"/>
+    <col min="3848" max="3848" width="8.140625" customWidth="1"/>
+    <col min="3849" max="3849" width="8.7109375" customWidth="1"/>
+    <col min="3850" max="3850" width="5.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="5.42578125" customWidth="1"/>
+    <col min="4099" max="4099" width="32.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="12.140625" customWidth="1"/>
+    <col min="4102" max="4102" width="6" customWidth="1"/>
+    <col min="4103" max="4103" width="8.28515625" customWidth="1"/>
+    <col min="4104" max="4104" width="8.140625" customWidth="1"/>
+    <col min="4105" max="4105" width="8.7109375" customWidth="1"/>
+    <col min="4106" max="4106" width="5.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="5.42578125" customWidth="1"/>
+    <col min="4355" max="4355" width="32.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="12.140625" customWidth="1"/>
+    <col min="4358" max="4358" width="6" customWidth="1"/>
+    <col min="4359" max="4359" width="8.28515625" customWidth="1"/>
+    <col min="4360" max="4360" width="8.140625" customWidth="1"/>
+    <col min="4361" max="4361" width="8.7109375" customWidth="1"/>
+    <col min="4362" max="4362" width="5.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="5.42578125" customWidth="1"/>
+    <col min="4611" max="4611" width="32.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="12.140625" customWidth="1"/>
+    <col min="4614" max="4614" width="6" customWidth="1"/>
+    <col min="4615" max="4615" width="8.28515625" customWidth="1"/>
+    <col min="4616" max="4616" width="8.140625" customWidth="1"/>
+    <col min="4617" max="4617" width="8.7109375" customWidth="1"/>
+    <col min="4618" max="4618" width="5.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="5.42578125" customWidth="1"/>
+    <col min="4867" max="4867" width="32.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="12.140625" customWidth="1"/>
+    <col min="4870" max="4870" width="6" customWidth="1"/>
+    <col min="4871" max="4871" width="8.28515625" customWidth="1"/>
+    <col min="4872" max="4872" width="8.140625" customWidth="1"/>
+    <col min="4873" max="4873" width="8.7109375" customWidth="1"/>
+    <col min="4874" max="4874" width="5.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="5.42578125" customWidth="1"/>
+    <col min="5123" max="5123" width="32.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="12.140625" customWidth="1"/>
+    <col min="5126" max="5126" width="6" customWidth="1"/>
+    <col min="5127" max="5127" width="8.28515625" customWidth="1"/>
+    <col min="5128" max="5128" width="8.140625" customWidth="1"/>
+    <col min="5129" max="5129" width="8.7109375" customWidth="1"/>
+    <col min="5130" max="5130" width="5.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="5.42578125" customWidth="1"/>
+    <col min="5379" max="5379" width="32.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="12.140625" customWidth="1"/>
+    <col min="5382" max="5382" width="6" customWidth="1"/>
+    <col min="5383" max="5383" width="8.28515625" customWidth="1"/>
+    <col min="5384" max="5384" width="8.140625" customWidth="1"/>
+    <col min="5385" max="5385" width="8.7109375" customWidth="1"/>
+    <col min="5386" max="5386" width="5.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="5.42578125" customWidth="1"/>
+    <col min="5635" max="5635" width="32.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="12.140625" customWidth="1"/>
+    <col min="5638" max="5638" width="6" customWidth="1"/>
+    <col min="5639" max="5639" width="8.28515625" customWidth="1"/>
+    <col min="5640" max="5640" width="8.140625" customWidth="1"/>
+    <col min="5641" max="5641" width="8.7109375" customWidth="1"/>
+    <col min="5642" max="5642" width="5.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="5.42578125" customWidth="1"/>
+    <col min="5891" max="5891" width="32.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="12.140625" customWidth="1"/>
+    <col min="5894" max="5894" width="6" customWidth="1"/>
+    <col min="5895" max="5895" width="8.28515625" customWidth="1"/>
+    <col min="5896" max="5896" width="8.140625" customWidth="1"/>
+    <col min="5897" max="5897" width="8.7109375" customWidth="1"/>
+    <col min="5898" max="5898" width="5.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="5.42578125" customWidth="1"/>
+    <col min="6147" max="6147" width="32.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="12.140625" customWidth="1"/>
+    <col min="6150" max="6150" width="6" customWidth="1"/>
+    <col min="6151" max="6151" width="8.28515625" customWidth="1"/>
+    <col min="6152" max="6152" width="8.140625" customWidth="1"/>
+    <col min="6153" max="6153" width="8.7109375" customWidth="1"/>
+    <col min="6154" max="6154" width="5.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="5.42578125" customWidth="1"/>
+    <col min="6403" max="6403" width="32.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="12.140625" customWidth="1"/>
+    <col min="6406" max="6406" width="6" customWidth="1"/>
+    <col min="6407" max="6407" width="8.28515625" customWidth="1"/>
+    <col min="6408" max="6408" width="8.140625" customWidth="1"/>
+    <col min="6409" max="6409" width="8.7109375" customWidth="1"/>
+    <col min="6410" max="6410" width="5.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="5.42578125" customWidth="1"/>
+    <col min="6659" max="6659" width="32.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="12.140625" customWidth="1"/>
+    <col min="6662" max="6662" width="6" customWidth="1"/>
+    <col min="6663" max="6663" width="8.28515625" customWidth="1"/>
+    <col min="6664" max="6664" width="8.140625" customWidth="1"/>
+    <col min="6665" max="6665" width="8.7109375" customWidth="1"/>
+    <col min="6666" max="6666" width="5.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="5.42578125" customWidth="1"/>
+    <col min="6915" max="6915" width="32.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="12.140625" customWidth="1"/>
+    <col min="6918" max="6918" width="6" customWidth="1"/>
+    <col min="6919" max="6919" width="8.28515625" customWidth="1"/>
+    <col min="6920" max="6920" width="8.140625" customWidth="1"/>
+    <col min="6921" max="6921" width="8.7109375" customWidth="1"/>
+    <col min="6922" max="6922" width="5.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="5.42578125" customWidth="1"/>
+    <col min="7171" max="7171" width="32.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="12.140625" customWidth="1"/>
+    <col min="7174" max="7174" width="6" customWidth="1"/>
+    <col min="7175" max="7175" width="8.28515625" customWidth="1"/>
+    <col min="7176" max="7176" width="8.140625" customWidth="1"/>
+    <col min="7177" max="7177" width="8.7109375" customWidth="1"/>
+    <col min="7178" max="7178" width="5.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="5.42578125" customWidth="1"/>
+    <col min="7427" max="7427" width="32.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="12.140625" customWidth="1"/>
+    <col min="7430" max="7430" width="6" customWidth="1"/>
+    <col min="7431" max="7431" width="8.28515625" customWidth="1"/>
+    <col min="7432" max="7432" width="8.140625" customWidth="1"/>
+    <col min="7433" max="7433" width="8.7109375" customWidth="1"/>
+    <col min="7434" max="7434" width="5.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="5.42578125" customWidth="1"/>
+    <col min="7683" max="7683" width="32.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="12.140625" customWidth="1"/>
+    <col min="7686" max="7686" width="6" customWidth="1"/>
+    <col min="7687" max="7687" width="8.28515625" customWidth="1"/>
+    <col min="7688" max="7688" width="8.140625" customWidth="1"/>
+    <col min="7689" max="7689" width="8.7109375" customWidth="1"/>
+    <col min="7690" max="7690" width="5.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="5.42578125" customWidth="1"/>
+    <col min="7939" max="7939" width="32.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="12.140625" customWidth="1"/>
+    <col min="7942" max="7942" width="6" customWidth="1"/>
+    <col min="7943" max="7943" width="8.28515625" customWidth="1"/>
+    <col min="7944" max="7944" width="8.140625" customWidth="1"/>
+    <col min="7945" max="7945" width="8.7109375" customWidth="1"/>
+    <col min="7946" max="7946" width="5.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="5.42578125" customWidth="1"/>
+    <col min="8195" max="8195" width="32.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="12.140625" customWidth="1"/>
+    <col min="8198" max="8198" width="6" customWidth="1"/>
+    <col min="8199" max="8199" width="8.28515625" customWidth="1"/>
+    <col min="8200" max="8200" width="8.140625" customWidth="1"/>
+    <col min="8201" max="8201" width="8.7109375" customWidth="1"/>
+    <col min="8202" max="8202" width="5.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="5.42578125" customWidth="1"/>
+    <col min="8451" max="8451" width="32.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="12.140625" customWidth="1"/>
+    <col min="8454" max="8454" width="6" customWidth="1"/>
+    <col min="8455" max="8455" width="8.28515625" customWidth="1"/>
+    <col min="8456" max="8456" width="8.140625" customWidth="1"/>
+    <col min="8457" max="8457" width="8.7109375" customWidth="1"/>
+    <col min="8458" max="8458" width="5.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="5.42578125" customWidth="1"/>
+    <col min="8707" max="8707" width="32.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="12.140625" customWidth="1"/>
+    <col min="8710" max="8710" width="6" customWidth="1"/>
+    <col min="8711" max="8711" width="8.28515625" customWidth="1"/>
+    <col min="8712" max="8712" width="8.140625" customWidth="1"/>
+    <col min="8713" max="8713" width="8.7109375" customWidth="1"/>
+    <col min="8714" max="8714" width="5.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="5.42578125" customWidth="1"/>
+    <col min="8963" max="8963" width="32.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="12.140625" customWidth="1"/>
+    <col min="8966" max="8966" width="6" customWidth="1"/>
+    <col min="8967" max="8967" width="8.28515625" customWidth="1"/>
+    <col min="8968" max="8968" width="8.140625" customWidth="1"/>
+    <col min="8969" max="8969" width="8.7109375" customWidth="1"/>
+    <col min="8970" max="8970" width="5.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="5.42578125" customWidth="1"/>
+    <col min="9219" max="9219" width="32.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="12.140625" customWidth="1"/>
+    <col min="9222" max="9222" width="6" customWidth="1"/>
+    <col min="9223" max="9223" width="8.28515625" customWidth="1"/>
+    <col min="9224" max="9224" width="8.140625" customWidth="1"/>
+    <col min="9225" max="9225" width="8.7109375" customWidth="1"/>
+    <col min="9226" max="9226" width="5.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="5.42578125" customWidth="1"/>
+    <col min="9475" max="9475" width="32.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="12.140625" customWidth="1"/>
+    <col min="9478" max="9478" width="6" customWidth="1"/>
+    <col min="9479" max="9479" width="8.28515625" customWidth="1"/>
+    <col min="9480" max="9480" width="8.140625" customWidth="1"/>
+    <col min="9481" max="9481" width="8.7109375" customWidth="1"/>
+    <col min="9482" max="9482" width="5.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="5.42578125" customWidth="1"/>
+    <col min="9731" max="9731" width="32.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="12.140625" customWidth="1"/>
+    <col min="9734" max="9734" width="6" customWidth="1"/>
+    <col min="9735" max="9735" width="8.28515625" customWidth="1"/>
+    <col min="9736" max="9736" width="8.140625" customWidth="1"/>
+    <col min="9737" max="9737" width="8.7109375" customWidth="1"/>
+    <col min="9738" max="9738" width="5.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="5.42578125" customWidth="1"/>
+    <col min="9987" max="9987" width="32.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="12.140625" customWidth="1"/>
+    <col min="9990" max="9990" width="6" customWidth="1"/>
+    <col min="9991" max="9991" width="8.28515625" customWidth="1"/>
+    <col min="9992" max="9992" width="8.140625" customWidth="1"/>
+    <col min="9993" max="9993" width="8.7109375" customWidth="1"/>
+    <col min="9994" max="9994" width="5.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="5.42578125" customWidth="1"/>
+    <col min="10243" max="10243" width="32.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="12.140625" customWidth="1"/>
+    <col min="10246" max="10246" width="6" customWidth="1"/>
+    <col min="10247" max="10247" width="8.28515625" customWidth="1"/>
+    <col min="10248" max="10248" width="8.140625" customWidth="1"/>
+    <col min="10249" max="10249" width="8.7109375" customWidth="1"/>
+    <col min="10250" max="10250" width="5.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="5.42578125" customWidth="1"/>
+    <col min="10499" max="10499" width="32.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="12.140625" customWidth="1"/>
+    <col min="10502" max="10502" width="6" customWidth="1"/>
+    <col min="10503" max="10503" width="8.28515625" customWidth="1"/>
+    <col min="10504" max="10504" width="8.140625" customWidth="1"/>
+    <col min="10505" max="10505" width="8.7109375" customWidth="1"/>
+    <col min="10506" max="10506" width="5.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="5.42578125" customWidth="1"/>
+    <col min="10755" max="10755" width="32.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="12.140625" customWidth="1"/>
+    <col min="10758" max="10758" width="6" customWidth="1"/>
+    <col min="10759" max="10759" width="8.28515625" customWidth="1"/>
+    <col min="10760" max="10760" width="8.140625" customWidth="1"/>
+    <col min="10761" max="10761" width="8.7109375" customWidth="1"/>
+    <col min="10762" max="10762" width="5.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="5.42578125" customWidth="1"/>
+    <col min="11011" max="11011" width="32.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="12.140625" customWidth="1"/>
+    <col min="11014" max="11014" width="6" customWidth="1"/>
+    <col min="11015" max="11015" width="8.28515625" customWidth="1"/>
+    <col min="11016" max="11016" width="8.140625" customWidth="1"/>
+    <col min="11017" max="11017" width="8.7109375" customWidth="1"/>
+    <col min="11018" max="11018" width="5.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="5.42578125" customWidth="1"/>
+    <col min="11267" max="11267" width="32.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="12.140625" customWidth="1"/>
+    <col min="11270" max="11270" width="6" customWidth="1"/>
+    <col min="11271" max="11271" width="8.28515625" customWidth="1"/>
+    <col min="11272" max="11272" width="8.140625" customWidth="1"/>
+    <col min="11273" max="11273" width="8.7109375" customWidth="1"/>
+    <col min="11274" max="11274" width="5.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="5.42578125" customWidth="1"/>
+    <col min="11523" max="11523" width="32.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="12.140625" customWidth="1"/>
+    <col min="11526" max="11526" width="6" customWidth="1"/>
+    <col min="11527" max="11527" width="8.28515625" customWidth="1"/>
+    <col min="11528" max="11528" width="8.140625" customWidth="1"/>
+    <col min="11529" max="11529" width="8.7109375" customWidth="1"/>
+    <col min="11530" max="11530" width="5.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="5.42578125" customWidth="1"/>
+    <col min="11779" max="11779" width="32.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="12.140625" customWidth="1"/>
+    <col min="11782" max="11782" width="6" customWidth="1"/>
+    <col min="11783" max="11783" width="8.28515625" customWidth="1"/>
+    <col min="11784" max="11784" width="8.140625" customWidth="1"/>
+    <col min="11785" max="11785" width="8.7109375" customWidth="1"/>
+    <col min="11786" max="11786" width="5.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="5.42578125" customWidth="1"/>
+    <col min="12035" max="12035" width="32.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="12.140625" customWidth="1"/>
+    <col min="12038" max="12038" width="6" customWidth="1"/>
+    <col min="12039" max="12039" width="8.28515625" customWidth="1"/>
+    <col min="12040" max="12040" width="8.140625" customWidth="1"/>
+    <col min="12041" max="12041" width="8.7109375" customWidth="1"/>
+    <col min="12042" max="12042" width="5.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="5.42578125" customWidth="1"/>
+    <col min="12291" max="12291" width="32.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="12.140625" customWidth="1"/>
+    <col min="12294" max="12294" width="6" customWidth="1"/>
+    <col min="12295" max="12295" width="8.28515625" customWidth="1"/>
+    <col min="12296" max="12296" width="8.140625" customWidth="1"/>
+    <col min="12297" max="12297" width="8.7109375" customWidth="1"/>
+    <col min="12298" max="12298" width="5.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="5.42578125" customWidth="1"/>
+    <col min="12547" max="12547" width="32.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="12.140625" customWidth="1"/>
+    <col min="12550" max="12550" width="6" customWidth="1"/>
+    <col min="12551" max="12551" width="8.28515625" customWidth="1"/>
+    <col min="12552" max="12552" width="8.140625" customWidth="1"/>
+    <col min="12553" max="12553" width="8.7109375" customWidth="1"/>
+    <col min="12554" max="12554" width="5.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="5.42578125" customWidth="1"/>
+    <col min="12803" max="12803" width="32.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="12.140625" customWidth="1"/>
+    <col min="12806" max="12806" width="6" customWidth="1"/>
+    <col min="12807" max="12807" width="8.28515625" customWidth="1"/>
+    <col min="12808" max="12808" width="8.140625" customWidth="1"/>
+    <col min="12809" max="12809" width="8.7109375" customWidth="1"/>
+    <col min="12810" max="12810" width="5.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="5.42578125" customWidth="1"/>
+    <col min="13059" max="13059" width="32.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="12.140625" customWidth="1"/>
+    <col min="13062" max="13062" width="6" customWidth="1"/>
+    <col min="13063" max="13063" width="8.28515625" customWidth="1"/>
+    <col min="13064" max="13064" width="8.140625" customWidth="1"/>
+    <col min="13065" max="13065" width="8.7109375" customWidth="1"/>
+    <col min="13066" max="13066" width="5.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="5.42578125" customWidth="1"/>
+    <col min="13315" max="13315" width="32.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="12.140625" customWidth="1"/>
+    <col min="13318" max="13318" width="6" customWidth="1"/>
+    <col min="13319" max="13319" width="8.28515625" customWidth="1"/>
+    <col min="13320" max="13320" width="8.140625" customWidth="1"/>
+    <col min="13321" max="13321" width="8.7109375" customWidth="1"/>
+    <col min="13322" max="13322" width="5.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="5.42578125" customWidth="1"/>
+    <col min="13571" max="13571" width="32.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="12.140625" customWidth="1"/>
+    <col min="13574" max="13574" width="6" customWidth="1"/>
+    <col min="13575" max="13575" width="8.28515625" customWidth="1"/>
+    <col min="13576" max="13576" width="8.140625" customWidth="1"/>
+    <col min="13577" max="13577" width="8.7109375" customWidth="1"/>
+    <col min="13578" max="13578" width="5.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="5.42578125" customWidth="1"/>
+    <col min="13827" max="13827" width="32.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="12.140625" customWidth="1"/>
+    <col min="13830" max="13830" width="6" customWidth="1"/>
+    <col min="13831" max="13831" width="8.28515625" customWidth="1"/>
+    <col min="13832" max="13832" width="8.140625" customWidth="1"/>
+    <col min="13833" max="13833" width="8.7109375" customWidth="1"/>
+    <col min="13834" max="13834" width="5.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="5.42578125" customWidth="1"/>
+    <col min="14083" max="14083" width="32.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="12.140625" customWidth="1"/>
+    <col min="14086" max="14086" width="6" customWidth="1"/>
+    <col min="14087" max="14087" width="8.28515625" customWidth="1"/>
+    <col min="14088" max="14088" width="8.140625" customWidth="1"/>
+    <col min="14089" max="14089" width="8.7109375" customWidth="1"/>
+    <col min="14090" max="14090" width="5.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="5.42578125" customWidth="1"/>
+    <col min="14339" max="14339" width="32.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="12.140625" customWidth="1"/>
+    <col min="14342" max="14342" width="6" customWidth="1"/>
+    <col min="14343" max="14343" width="8.28515625" customWidth="1"/>
+    <col min="14344" max="14344" width="8.140625" customWidth="1"/>
+    <col min="14345" max="14345" width="8.7109375" customWidth="1"/>
+    <col min="14346" max="14346" width="5.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="5.42578125" customWidth="1"/>
+    <col min="14595" max="14595" width="32.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="12.140625" customWidth="1"/>
+    <col min="14598" max="14598" width="6" customWidth="1"/>
+    <col min="14599" max="14599" width="8.28515625" customWidth="1"/>
+    <col min="14600" max="14600" width="8.140625" customWidth="1"/>
+    <col min="14601" max="14601" width="8.7109375" customWidth="1"/>
+    <col min="14602" max="14602" width="5.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="5.42578125" customWidth="1"/>
+    <col min="14851" max="14851" width="32.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="12.140625" customWidth="1"/>
+    <col min="14854" max="14854" width="6" customWidth="1"/>
+    <col min="14855" max="14855" width="8.28515625" customWidth="1"/>
+    <col min="14856" max="14856" width="8.140625" customWidth="1"/>
+    <col min="14857" max="14857" width="8.7109375" customWidth="1"/>
+    <col min="14858" max="14858" width="5.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="5.42578125" customWidth="1"/>
+    <col min="15107" max="15107" width="32.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="12.140625" customWidth="1"/>
+    <col min="15110" max="15110" width="6" customWidth="1"/>
+    <col min="15111" max="15111" width="8.28515625" customWidth="1"/>
+    <col min="15112" max="15112" width="8.140625" customWidth="1"/>
+    <col min="15113" max="15113" width="8.7109375" customWidth="1"/>
+    <col min="15114" max="15114" width="5.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="5.42578125" customWidth="1"/>
+    <col min="15363" max="15363" width="32.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="12.140625" customWidth="1"/>
+    <col min="15366" max="15366" width="6" customWidth="1"/>
+    <col min="15367" max="15367" width="8.28515625" customWidth="1"/>
+    <col min="15368" max="15368" width="8.140625" customWidth="1"/>
+    <col min="15369" max="15369" width="8.7109375" customWidth="1"/>
+    <col min="15370" max="15370" width="5.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="5.42578125" customWidth="1"/>
+    <col min="15619" max="15619" width="32.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="12.140625" customWidth="1"/>
+    <col min="15622" max="15622" width="6" customWidth="1"/>
+    <col min="15623" max="15623" width="8.28515625" customWidth="1"/>
+    <col min="15624" max="15624" width="8.140625" customWidth="1"/>
+    <col min="15625" max="15625" width="8.7109375" customWidth="1"/>
+    <col min="15626" max="15626" width="5.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="5.42578125" customWidth="1"/>
+    <col min="15875" max="15875" width="32.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="12.140625" customWidth="1"/>
+    <col min="15878" max="15878" width="6" customWidth="1"/>
+    <col min="15879" max="15879" width="8.28515625" customWidth="1"/>
+    <col min="15880" max="15880" width="8.140625" customWidth="1"/>
+    <col min="15881" max="15881" width="8.7109375" customWidth="1"/>
+    <col min="15882" max="15882" width="5.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="5.42578125" customWidth="1"/>
+    <col min="16131" max="16131" width="32.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="12.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="6" customWidth="1"/>
+    <col min="16135" max="16135" width="8.28515625" customWidth="1"/>
+    <col min="16136" max="16136" width="8.140625" customWidth="1"/>
+    <col min="16137" max="16137" width="8.7109375" customWidth="1"/>
+    <col min="16138" max="16138" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="G1" s="10" t="s">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="G2" s="11" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="E4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="G3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:10" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="I18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="8" t="s">
+      <c r="J18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="24" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="H27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="30" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="27">
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.26" right="0.28000000000000003" top="0.27" bottom="0.39" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QLDS/Backend/src/main/resources/Bien_ban_kiem_nghiem.xlsx
+++ b/QLDS/Backend/src/main/resources/Bien_ban_kiem_nghiem.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8B47F-7EAD-4CB5-9B27-A85D0FF6B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{56080976-B639-4D2D-AC6B-DDD013044367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biên bản kiểm nghiệm" sheetId="2" r:id="rId1"/>
@@ -19,11 +14,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Biên bản kiểm nghiệm'!$B$1:$J$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t xml:space="preserve">(Ban hành theo Thông tư số 200/2014/TT-BTC </t>
   </si>
@@ -124,10 +120,16 @@
     <t xml:space="preserve">  - Căn cứ hoá đơn số {0} ngày {1} tháng {2} năm {3} của {4}</t>
   </si>
   <si>
-    <t xml:space="preserve"> + Ông/Bà:    {0}     Chức vụ:  {1}     Đại diện:  {2}     Trưởng ban</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Ông/Bà:    {0}     Chức vụ:  {1}     Đại diện:  {2}      Uỷ viên</t>
+    <t>Chức vụ:  {0}</t>
+  </si>
+  <si>
+    <t>Đại diện:  {0}</t>
+  </si>
+  <si>
+    <t>Uỷ viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Ông/Bà:  {0}</t>
   </si>
 </sst>
 </file>
@@ -279,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -338,6 +340,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,18 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,20 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360DC567-C3BE-4A7F-97BB-EFEBC3F1BD03}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="6" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
     <col min="258" max="258" width="5.42578125" customWidth="1"/>
     <col min="259" max="259" width="32.42578125" customWidth="1"/>
@@ -1224,74 +1229,74 @@
     <col min="16138" max="16138" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="6" spans="2:24" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="20" t="s">
@@ -1304,20 +1309,20 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1328,116 +1333,158 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+    </row>
+    <row r="15" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="2:10" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1555,17 +1602,17 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
@@ -1579,62 +1626,47 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="P13:X13"/>
+    <mergeCell ref="P14:X14"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:J3"/>
@@ -1644,6 +1676,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.28000000000000003" top="0.27" bottom="0.39" header="0.2" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
